--- a/tests/resources/test_set1.xlsx
+++ b/tests/resources/test_set1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="foil" sheetId="1" state="visible" r:id="rId2"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="120">
   <si>
     <t xml:space="preserve">Imaginärer Wert</t>
   </si>
@@ -737,11 +737,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="7.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="24.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="12.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="12.86"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="23" style="1" width="11.57"/>
@@ -1051,31 +1051,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q6" activeCellId="0" sqref="Q6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="24.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="7.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="15.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="15.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="18" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="7.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="24.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="7.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="7.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="15.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16383" min="17" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1088,22 +1088,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="O4" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="P4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q4" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1116,66 +1116,66 @@
         <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="D7" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="7" t="s">
         <v>30</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>32</v>
@@ -1184,7 +1184,7 @@
         <v>32</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>33</v>
@@ -1192,86 +1192,77 @@
       <c r="M7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" s="5" t="s">
+      <c r="O7" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>45</v>
+      <c r="C8" s="14" t="n">
+        <v>11</v>
       </c>
       <c r="D8" s="14" t="n">
-        <v>11</v>
-      </c>
-      <c r="E8" s="14" t="n">
         <v>0.0074</v>
       </c>
+      <c r="E8" s="13"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="1" t="n">
+      <c r="G8" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="H8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="K8" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="14" t="n">
+      <c r="L8" s="14" t="n">
         <v>116</v>
       </c>
-      <c r="O8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="14" t="n">
+        <v>134</v>
+      </c>
       <c r="P8" s="14" t="n">
-        <v>134</v>
-      </c>
-      <c r="Q8" s="14" t="n">
         <v>187</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>45</v>
+      <c r="C9" s="14" t="n">
+        <v>26</v>
       </c>
       <c r="D9" s="14" t="n">
-        <v>26</v>
-      </c>
-      <c r="E9" s="14" t="n">
         <v>0.0149</v>
       </c>
+      <c r="E9" s="13"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="1" t="n">
+      <c r="G9" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="K9" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="M9" s="14" t="n">
+      <c r="L9" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="12" t="s">
+      <c r="N9" s="13"/>
+      <c r="O9" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="Q9" s="14" t="n">
+      <c r="P9" s="14" t="n">
         <v>525</v>
       </c>
     </row>
@@ -1318,11 +1309,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="13.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="1" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="12.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="12.86"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="31" style="1" width="11.57"/>
@@ -1908,7 +1899,7 @@
   </sheetPr>
   <dimension ref="A1:AD10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Q6" activeCellId="0" sqref="Q6"/>
     </sheetView>
   </sheetViews>
@@ -1934,11 +1925,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="13.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="1" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="12.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="6.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="12.86"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="31" style="1" width="11.57"/>
